--- a/Burndown chart BSPQ23-E1.xlsx
+++ b/Burndown chart BSPQ23-E1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>Day</t>
   </si>
@@ -172,6 +172,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mmm-d"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11.0"/>
@@ -219,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -231,6 +234,10 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -331,11 +338,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="845134133"/>
-        <c:axId val="389793703"/>
+        <c:axId val="1062060374"/>
+        <c:axId val="2112164302"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="845134133"/>
+        <c:axId val="1062060374"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -387,10 +394,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389793703"/>
+        <c:crossAx val="2112164302"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="389793703"/>
+        <c:axId val="2112164302"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -454,7 +461,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="845134133"/>
+        <c:crossAx val="1062060374"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -572,11 +579,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="50878225"/>
-        <c:axId val="1936825305"/>
+        <c:axId val="528089839"/>
+        <c:axId val="1128203690"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50878225"/>
+        <c:axId val="528089839"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -628,10 +635,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1936825305"/>
+        <c:crossAx val="1128203690"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1936825305"/>
+        <c:axId val="1128203690"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -695,7 +702,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50878225"/>
+        <c:crossAx val="528089839"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -745,7 +752,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Burndown Chart Sprint 2</a:t>
+              <a:t>Burndown Chart Sprint 3</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -755,11 +762,69 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:axId val="732520298"/>
-        <c:axId val="1411851052"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Planned</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 3'!$B$2:$B$28</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3'!$C$2:$C$28</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint 3'!$B$2:$B$28</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3'!$D$2:$D$28</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="695634660"/>
+        <c:axId val="1950135141"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="732520298"/>
+        <c:axId val="695634660"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -811,22 +876,74 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1411851052"/>
+        <c:crossAx val="1950135141"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1411851052"/>
+        <c:axId val="1950135141"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
+          <a:ln/>
         </c:spPr>
-        <c:crossAx val="732520298"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695634660"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3702,193 +3819,259 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="5">
+        <v>45415.0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="5">
+        <v>45416.0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="5">
+        <v>45417.0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="5">
+        <v>45418.0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="5">
+        <v>45419.0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="5">
+        <v>45420.0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="5">
+        <v>45421.0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="5">
+        <v>45422.0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="5">
+        <v>45423.0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="5">
+        <v>45424.0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="5">
+        <v>45425.0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="5">
+        <v>45426.0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="5">
+        <v>45427.0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="5">
+        <v>45428.0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="5">
+        <v>45429.0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="B17" s="5">
+        <v>45430.0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="B18" s="5">
+        <v>45431.0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="B19" s="5">
+        <v>45432.0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="B20" s="5">
+        <v>45433.0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="B21" s="5">
+        <v>45434.0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="B22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="B23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="B27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="B28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" ht="14.25" customHeight="1"/>
     <row r="30" ht="14.25" customHeight="1"/>
